--- a/足球/各国联赛/中奖概率表联赛分表.xlsx
+++ b/足球/各国联赛/中奖概率表联赛分表.xlsx
@@ -1,43 +1,440 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="26880" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="14">
+  <si>
+    <t>赛事预测命中率</t>
+  </si>
+  <si>
+    <t>预测人</t>
+  </si>
+  <si>
+    <t>预测结果</t>
+  </si>
+  <si>
+    <t>赛事结果</t>
+  </si>
+  <si>
+    <t>杨博</t>
+  </si>
+  <si>
+    <t>千叶市原让胜</t>
+  </si>
+  <si>
+    <t>郝冲</t>
+  </si>
+  <si>
+    <t>戈亚斯胜</t>
+  </si>
+  <si>
+    <t>张羽鸿</t>
+  </si>
+  <si>
+    <t>墨尔本城让胜</t>
+  </si>
+  <si>
+    <t>墨尔本城让平</t>
+  </si>
+  <si>
+    <t>小鱼儿</t>
+  </si>
+  <si>
+    <t>墨尔本城让负</t>
+  </si>
+  <si>
+    <t>横滨FC胜</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,24 +442,334 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -111,7 +818,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -146,7 +853,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -320,23 +1027,1248 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:EV4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="7" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="11" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="14" max="14" width="12.875" customWidth="1"/>
+    <col min="15" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="7" customWidth="1"/>
+    <col min="18" max="18" width="8.875" customWidth="1"/>
+    <col min="19" max="20" width="15" customWidth="1"/>
+    <col min="21" max="21" width="7" customWidth="1"/>
+    <col min="22" max="22" width="8.875" customWidth="1"/>
+    <col min="23" max="24" width="15" customWidth="1"/>
+    <col min="25" max="25" width="7" customWidth="1"/>
+    <col min="26" max="26" width="8.875" customWidth="1"/>
+    <col min="27" max="28" width="15" customWidth="1"/>
+    <col min="29" max="29" width="7" customWidth="1"/>
+    <col min="30" max="30" width="8.875" customWidth="1"/>
+    <col min="31" max="32" width="15" customWidth="1"/>
+    <col min="33" max="33" width="7" customWidth="1"/>
+    <col min="34" max="34" width="8.875" customWidth="1"/>
+    <col min="35" max="36" width="15" customWidth="1"/>
+    <col min="37" max="37" width="7" customWidth="1"/>
+    <col min="38" max="38" width="8.875" customWidth="1"/>
+    <col min="39" max="40" width="15" customWidth="1"/>
+    <col min="41" max="41" width="7" customWidth="1"/>
+    <col min="42" max="42" width="8.875" customWidth="1"/>
+    <col min="43" max="44" width="15" customWidth="1"/>
+    <col min="45" max="45" width="7" customWidth="1"/>
+    <col min="46" max="46" width="8.875" customWidth="1"/>
+    <col min="47" max="48" width="15" customWidth="1"/>
+    <col min="49" max="49" width="7" customWidth="1"/>
+    <col min="50" max="50" width="8.875" customWidth="1"/>
+    <col min="51" max="52" width="15" customWidth="1"/>
+    <col min="53" max="53" width="7" customWidth="1"/>
+    <col min="54" max="54" width="8.875" customWidth="1"/>
+    <col min="55" max="56" width="15" customWidth="1"/>
+    <col min="57" max="57" width="7" customWidth="1"/>
+    <col min="58" max="58" width="8.875" customWidth="1"/>
+    <col min="59" max="60" width="15" customWidth="1"/>
+    <col min="61" max="61" width="7" customWidth="1"/>
+    <col min="62" max="62" width="8.875" customWidth="1"/>
+    <col min="63" max="64" width="15" customWidth="1"/>
+    <col min="65" max="65" width="7" customWidth="1"/>
+    <col min="66" max="66" width="8.875" customWidth="1"/>
+    <col min="67" max="68" width="15" customWidth="1"/>
+    <col min="69" max="69" width="7" customWidth="1"/>
+    <col min="70" max="70" width="8.875" customWidth="1"/>
+    <col min="71" max="72" width="15" customWidth="1"/>
+    <col min="73" max="73" width="7" customWidth="1"/>
+    <col min="74" max="74" width="8.875" customWidth="1"/>
+    <col min="75" max="76" width="15" customWidth="1"/>
+    <col min="77" max="77" width="7" customWidth="1"/>
+    <col min="78" max="78" width="8.875" customWidth="1"/>
+    <col min="79" max="80" width="15" customWidth="1"/>
+    <col min="81" max="81" width="7" customWidth="1"/>
+    <col min="82" max="82" width="8.875" customWidth="1"/>
+    <col min="83" max="84" width="15" customWidth="1"/>
+    <col min="85" max="85" width="7" customWidth="1"/>
+    <col min="86" max="86" width="8.875" customWidth="1"/>
+    <col min="87" max="88" width="15" customWidth="1"/>
+    <col min="89" max="89" width="7" customWidth="1"/>
+    <col min="90" max="90" width="8.875" customWidth="1"/>
+    <col min="91" max="92" width="15" customWidth="1"/>
+    <col min="93" max="93" width="7" customWidth="1"/>
+    <col min="94" max="94" width="8.875" customWidth="1"/>
+    <col min="95" max="96" width="15" customWidth="1"/>
+    <col min="97" max="97" width="7" customWidth="1"/>
+    <col min="98" max="98" width="8.875" customWidth="1"/>
+    <col min="99" max="100" width="15" customWidth="1"/>
+    <col min="101" max="101" width="7" customWidth="1"/>
+    <col min="102" max="102" width="8.875" customWidth="1"/>
+    <col min="103" max="104" width="15" customWidth="1"/>
+    <col min="105" max="105" width="7" customWidth="1"/>
+    <col min="106" max="106" width="8.875" customWidth="1"/>
+    <col min="107" max="108" width="15" customWidth="1"/>
+    <col min="109" max="109" width="7" customWidth="1"/>
+    <col min="110" max="110" width="8.875" customWidth="1"/>
+    <col min="111" max="112" width="15" customWidth="1"/>
+    <col min="113" max="113" width="7" customWidth="1"/>
+    <col min="114" max="114" width="8.875" customWidth="1"/>
+    <col min="115" max="116" width="15" customWidth="1"/>
+    <col min="117" max="117" width="7" customWidth="1"/>
+    <col min="118" max="118" width="8.875" customWidth="1"/>
+    <col min="119" max="120" width="15" customWidth="1"/>
+    <col min="121" max="121" width="7" customWidth="1"/>
+    <col min="122" max="122" width="8.875" customWidth="1"/>
+    <col min="123" max="124" width="15" customWidth="1"/>
+    <col min="125" max="125" width="7" customWidth="1"/>
+    <col min="126" max="126" width="8.875" customWidth="1"/>
+    <col min="127" max="128" width="15" customWidth="1"/>
+    <col min="129" max="129" width="7" customWidth="1"/>
+    <col min="130" max="130" width="8.875" customWidth="1"/>
+    <col min="131" max="132" width="15" customWidth="1"/>
+    <col min="133" max="133" width="7" customWidth="1"/>
+    <col min="134" max="134" width="8.875" customWidth="1"/>
+    <col min="135" max="136" width="15" customWidth="1"/>
+    <col min="137" max="137" width="7" customWidth="1"/>
+    <col min="138" max="138" width="8.875" customWidth="1"/>
+    <col min="139" max="140" width="15" customWidth="1"/>
+    <col min="141" max="141" width="7" customWidth="1"/>
+    <col min="142" max="142" width="8.875" customWidth="1"/>
+    <col min="143" max="144" width="15" customWidth="1"/>
+    <col min="145" max="145" width="7" customWidth="1"/>
+    <col min="146" max="146" width="8.875" customWidth="1"/>
+    <col min="147" max="148" width="15" customWidth="1"/>
+    <col min="149" max="149" width="7" customWidth="1"/>
+    <col min="150" max="150" width="8.875" customWidth="1"/>
+    <col min="151" max="152" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:152">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="2">
+        <v>0</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD1" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH1" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL1" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP1" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT1" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX1" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CA1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB1" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC1" s="2"/>
+      <c r="CD1" s="2"/>
+      <c r="CE1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF1" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG1" s="2"/>
+      <c r="CH1" s="2"/>
+      <c r="CI1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ1" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK1" s="2"/>
+      <c r="CL1" s="2"/>
+      <c r="CM1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN1" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO1" s="2"/>
+      <c r="CP1" s="2"/>
+      <c r="CQ1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR1" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS1" s="2"/>
+      <c r="CT1" s="2"/>
+      <c r="CU1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV1" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW1" s="2"/>
+      <c r="CX1" s="2"/>
+      <c r="CY1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CZ1" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA1" s="2"/>
+      <c r="DB1" s="2"/>
+      <c r="DC1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DD1" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE1" s="2"/>
+      <c r="DF1" s="2"/>
+      <c r="DG1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DH1" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI1" s="2"/>
+      <c r="DJ1" s="2"/>
+      <c r="DK1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DL1" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM1" s="2"/>
+      <c r="DN1" s="2"/>
+      <c r="DO1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DP1" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ1" s="2"/>
+      <c r="DR1" s="2"/>
+      <c r="DS1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DT1" s="2">
+        <v>0</v>
+      </c>
+      <c r="DU1" s="2"/>
+      <c r="DV1" s="2"/>
+      <c r="DW1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX1" s="2">
+        <v>0</v>
+      </c>
+      <c r="DY1" s="2"/>
+      <c r="DZ1" s="2"/>
+      <c r="EA1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB1" s="2">
+        <v>0</v>
+      </c>
+      <c r="EC1" s="2"/>
+      <c r="ED1" s="2"/>
+      <c r="EE1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="EF1" s="2">
+        <v>0</v>
+      </c>
+      <c r="EG1" s="2"/>
+      <c r="EH1" s="2"/>
+      <c r="EI1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="EJ1" s="2">
+        <v>0</v>
+      </c>
+      <c r="EK1" s="2"/>
+      <c r="EL1" s="2"/>
+      <c r="EM1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="EN1" s="2">
+        <v>0</v>
+      </c>
+      <c r="EO1" s="2"/>
+      <c r="EP1" s="2"/>
+      <c r="EQ1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="ER1" s="2">
+        <v>0</v>
+      </c>
+      <c r="ES1" s="2"/>
+      <c r="ET1" s="2"/>
+      <c r="EU1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="EV1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:152">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CE2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CM2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CQ2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CT2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CU2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CW2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CX2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CY2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DA2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DB2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DC2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DE2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DF2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DG2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DH2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DI2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DJ2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DK2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DL2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DM2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DN2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DQ2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DS2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DT2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DU2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DW2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DX2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EA2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="EC2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EE2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="EF2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="EG2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EI2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="EJ2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="EK2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EM2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="EO2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EQ2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="ER2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="ES2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EU2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="EV2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:152">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BM3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BQ3" s="2"/>
+      <c r="BR3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BT3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BV3" s="2"/>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BY3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CA3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CC3" s="2"/>
+      <c r="CD3" s="2"/>
+      <c r="CE3" s="2"/>
+      <c r="CF3" s="2"/>
+      <c r="CG3" s="2"/>
+      <c r="CH3" s="2"/>
+      <c r="CI3" s="2"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="2"/>
+      <c r="CL3" s="2"/>
+      <c r="CM3" s="2"/>
+      <c r="CN3" s="2"/>
+      <c r="CO3" s="2"/>
+      <c r="CP3" s="2"/>
+      <c r="CQ3" s="2"/>
+      <c r="CR3" s="2"/>
+      <c r="CS3" s="2"/>
+      <c r="CT3" s="2"/>
+      <c r="CU3" s="2"/>
+      <c r="CV3" s="2"/>
+      <c r="CW3" s="3"/>
+      <c r="CX3" s="3"/>
+      <c r="CY3" s="3"/>
+      <c r="CZ3" s="3"/>
+      <c r="DA3" s="3"/>
+      <c r="DB3" s="3"/>
+      <c r="DC3" s="3"/>
+      <c r="DD3" s="3"/>
+      <c r="DE3" s="3"/>
+      <c r="DF3" s="3"/>
+      <c r="DG3" s="3"/>
+      <c r="DH3" s="3"/>
+      <c r="DI3" s="3"/>
+      <c r="DJ3" s="3"/>
+      <c r="DK3" s="3"/>
+      <c r="DL3" s="3"/>
+      <c r="DM3" s="3"/>
+      <c r="DN3" s="3"/>
+      <c r="DO3" s="3"/>
+      <c r="DP3" s="3"/>
+      <c r="DQ3" s="3"/>
+      <c r="DR3" s="3"/>
+      <c r="DS3" s="3"/>
+      <c r="DT3" s="3"/>
+      <c r="DU3" s="3"/>
+      <c r="DV3" s="3"/>
+      <c r="DW3" s="3"/>
+      <c r="DX3" s="3"/>
+      <c r="DY3" s="3"/>
+      <c r="DZ3" s="3"/>
+      <c r="EA3" s="3"/>
+      <c r="EB3" s="3"/>
+      <c r="EC3" s="3"/>
+      <c r="ED3" s="3"/>
+      <c r="EE3" s="3"/>
+      <c r="EF3" s="3"/>
+      <c r="EG3" s="3"/>
+      <c r="EH3" s="3"/>
+      <c r="EI3" s="3"/>
+      <c r="EJ3" s="3"/>
+      <c r="EK3" s="3"/>
+      <c r="EL3" s="3"/>
+      <c r="EM3" s="3"/>
+      <c r="EN3" s="3"/>
+      <c r="EO3" s="3"/>
+      <c r="EP3" s="3"/>
+      <c r="EQ3" s="3"/>
+      <c r="ER3" s="3"/>
+      <c r="ES3" s="3"/>
+      <c r="ET3" s="3"/>
+      <c r="EU3" s="3"/>
+      <c r="EV3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:152">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BQ4" s="2"/>
+      <c r="BR4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BT4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BV4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CF4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CH4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="2"/>
+      <c r="CL4" s="2"/>
+      <c r="CM4" s="2"/>
+      <c r="CN4" s="2"/>
+      <c r="CO4" s="2"/>
+      <c r="CP4" s="2"/>
+      <c r="CQ4" s="2"/>
+      <c r="CR4" s="2"/>
+      <c r="CS4" s="2"/>
+      <c r="CT4" s="2"/>
+      <c r="CU4" s="2"/>
+      <c r="CV4" s="2"/>
+      <c r="CW4" s="3"/>
+      <c r="CX4" s="3"/>
+      <c r="CY4" s="3"/>
+      <c r="CZ4" s="3"/>
+      <c r="DA4" s="3"/>
+      <c r="DB4" s="3"/>
+      <c r="DC4" s="3"/>
+      <c r="DD4" s="3"/>
+      <c r="DE4" s="3"/>
+      <c r="DF4" s="3"/>
+      <c r="DG4" s="3"/>
+      <c r="DH4" s="3"/>
+      <c r="DI4" s="3"/>
+      <c r="DJ4" s="3"/>
+      <c r="DK4" s="3"/>
+      <c r="DL4" s="3"/>
+      <c r="DM4" s="3"/>
+      <c r="DN4" s="3"/>
+      <c r="DO4" s="3"/>
+      <c r="DP4" s="3"/>
+      <c r="DQ4" s="3"/>
+      <c r="DR4" s="3"/>
+      <c r="DS4" s="3"/>
+      <c r="DT4" s="3"/>
+      <c r="DU4" s="3"/>
+      <c r="DV4" s="3"/>
+      <c r="DW4" s="3"/>
+      <c r="DX4" s="3"/>
+      <c r="DY4" s="3"/>
+      <c r="DZ4" s="3"/>
+      <c r="EA4" s="3"/>
+      <c r="EB4" s="3"/>
+      <c r="EC4" s="3"/>
+      <c r="ED4" s="3"/>
+      <c r="EE4" s="3"/>
+      <c r="EF4" s="3"/>
+      <c r="EG4" s="3"/>
+      <c r="EH4" s="3"/>
+      <c r="EI4" s="3"/>
+      <c r="EJ4" s="3"/>
+      <c r="EK4" s="3"/>
+      <c r="EL4" s="3"/>
+      <c r="EM4" s="3"/>
+      <c r="EN4" s="3"/>
+      <c r="EO4" s="3"/>
+      <c r="EP4" s="3"/>
+      <c r="EQ4" s="3"/>
+      <c r="ER4" s="3"/>
+      <c r="ES4" s="3"/>
+      <c r="ET4" s="3"/>
+      <c r="EU4" s="3"/>
+      <c r="EV4" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>